--- a/war3/maps/EntryMap/script/y3-helper/plugin/tools/config/item.xlsx
+++ b/war3/maps/EntryMap/script/y3-helper/plugin/tools/config/item.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24285" windowHeight="10665"/>
+    <workbookView windowWidth="30285" windowHeight="15345"/>
   </bookViews>
   <sheets>
     <sheet name="unit" sheetId="5" r:id="rId1"/>
@@ -31,10 +31,9 @@
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>pc</author>
-    <author>Owner</author>
   </authors>
   <commentList>
-    <comment ref="F2" authorId="0">
+    <comment ref="C2" authorId="0">
       <text>
         <r>
           <rPr>
@@ -46,384 +45,164 @@
         </r>
       </text>
     </comment>
-    <comment ref="H2" authorId="1">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t>普通：</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <rFont val="Tahoma"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">10000
-</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t>穿刺：</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <rFont val="Tahoma"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">10001
-</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t>魔法：</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <rFont val="Tahoma"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">10002
-</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t>英雄：</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <rFont val="Tahoma"/>
-            <charset val="134"/>
-          </rPr>
-          <t>10003</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="I2" authorId="1">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t>轻甲：</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <rFont val="Tahoma"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">20000
-</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t>中甲：</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <rFont val="Tahoma"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">20001
-</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t>重甲：</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <rFont val="Tahoma"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">20002
-</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t>城甲：</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <rFont val="Tahoma"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">20003
-</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t>英雄：</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <rFont val="Tahoma"/>
-            <charset val="134"/>
-          </rPr>
-          <t>20004</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="Y2" authorId="1">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t>默认近战：0
-默认远程：1
-自定义：2
-无：999</t>
-        </r>
-      </text>
-    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="55">
   <si>
     <t>id</t>
   </si>
   <si>
-    <t>main_attr</t>
-  </si>
-  <si>
-    <t>attack_phy_float</t>
-  </si>
-  <si>
-    <t>attack_phy_float_grow</t>
-  </si>
-  <si>
     <t>lua_name</t>
   </si>
   <si>
-    <t>unit_type</t>
+    <t>item_type</t>
   </si>
   <si>
     <t>name</t>
   </si>
   <si>
-    <t>attack_type</t>
-  </si>
-  <si>
-    <t>armor_type</t>
-  </si>
-  <si>
-    <t>strength</t>
-  </si>
-  <si>
-    <t>strength_grow</t>
+    <t>desc</t>
+  </si>
+  <si>
+    <t>price_type</t>
+  </si>
+  <si>
+    <t>price</t>
+  </si>
+  <si>
+    <t>attr_name</t>
+  </si>
+  <si>
+    <t>attr_value</t>
+  </si>
+  <si>
+    <t>kv_key</t>
+  </si>
+  <si>
+    <t>kv_value</t>
+  </si>
+  <si>
+    <t>ability_key</t>
+  </si>
+  <si>
+    <t>random_table</t>
+  </si>
+  <si>
+    <t>道具物编id</t>
+  </si>
+  <si>
+    <t>lua名称</t>
+  </si>
+  <si>
+    <t>道具类型</t>
+  </si>
+  <si>
+    <t>游戏名称</t>
+  </si>
+  <si>
+    <t>描述</t>
+  </si>
+  <si>
+    <t>价格类型</t>
+  </si>
+  <si>
+    <t>价格</t>
+  </si>
+  <si>
+    <t>添加的属性游戏内key值,只有在attr类道具时才需要写</t>
+  </si>
+  <si>
+    <t>添加多少数值</t>
+  </si>
+  <si>
+    <t>对应playerKV表里的默认key</t>
+  </si>
+  <si>
+    <t>对应playerKV表里的value</t>
+  </si>
+  <si>
+    <t>对应可以释放的技能id</t>
+  </si>
+  <si>
+    <t>随机属性的对应表名</t>
+  </si>
+  <si>
+    <t>int</t>
+  </si>
+  <si>
+    <t>string</t>
+  </si>
+  <si>
+    <t>float</t>
+  </si>
+  <si>
+    <t>js</t>
+  </si>
+  <si>
+    <t>followHero</t>
+  </si>
+  <si>
+    <t>剑圣</t>
+  </si>
+  <si>
+    <t>gold</t>
+  </si>
+  <si>
+    <t>ssg</t>
+  </si>
+  <si>
+    <t>enemy</t>
+  </si>
+  <si>
+    <t>食尸鬼</t>
+  </si>
+  <si>
+    <t>wood</t>
+  </si>
+  <si>
+    <t>mjs</t>
+  </si>
+  <si>
+    <t>attr</t>
+  </si>
+  <si>
+    <t>敏捷书</t>
   </si>
   <si>
     <t>agility</t>
   </si>
   <si>
-    <t>agility_grow</t>
-  </si>
-  <si>
-    <t>intelligence</t>
-  </si>
-  <si>
-    <t>intelligence_grow</t>
-  </si>
-  <si>
-    <t>attack_phy</t>
-  </si>
-  <si>
-    <t>attack_phy_grow</t>
-  </si>
-  <si>
-    <t>defense_phy</t>
-  </si>
-  <si>
-    <t>defense_phy_grow</t>
-  </si>
-  <si>
-    <t>hp_rec</t>
-  </si>
-  <si>
-    <t>hp_rec_grow</t>
-  </si>
-  <si>
-    <t>hp_max</t>
-  </si>
-  <si>
-    <t>hp_max_grow</t>
-  </si>
-  <si>
-    <t>ori_speed</t>
-  </si>
-  <si>
-    <t>common_atk_type</t>
-  </si>
-  <si>
-    <t>common_atk</t>
-  </si>
-  <si>
-    <t>attack_interval</t>
-  </si>
-  <si>
-    <t>drop_items_tuple</t>
-  </si>
-  <si>
-    <t>reward_exp</t>
-  </si>
-  <si>
-    <t>道具物编id</t>
-  </si>
-  <si>
-    <t>主属性</t>
-  </si>
-  <si>
-    <t>浮动攻击力</t>
-  </si>
-  <si>
-    <t>lua名称</t>
-  </si>
-  <si>
-    <t>单位类型</t>
-  </si>
-  <si>
-    <t>游戏名称</t>
-  </si>
-  <si>
-    <t>攻击类型</t>
-  </si>
-  <si>
-    <t>防御类型</t>
-  </si>
-  <si>
-    <t>力量</t>
-  </si>
-  <si>
-    <t>力量成长</t>
-  </si>
-  <si>
-    <t>敏捷</t>
-  </si>
-  <si>
-    <t>敏捷成长</t>
-  </si>
-  <si>
-    <t>智力</t>
-  </si>
-  <si>
-    <t>智力成长</t>
-  </si>
-  <si>
-    <t>物理攻击力</t>
-  </si>
-  <si>
-    <t>物理防御力</t>
-  </si>
-  <si>
-    <t>生命恢复</t>
-  </si>
-  <si>
-    <t>最大生命值</t>
-  </si>
-  <si>
-    <t>移动速度</t>
-  </si>
-  <si>
-    <t>普攻类型</t>
-  </si>
-  <si>
-    <t>普通攻击</t>
-  </si>
-  <si>
-    <t>攻击间隔</t>
-  </si>
-  <si>
-    <t>掉落物品</t>
-  </si>
-  <si>
-    <t>经验</t>
-  </si>
-  <si>
-    <t>int</t>
-  </si>
-  <si>
-    <t>string</t>
-  </si>
-  <si>
-    <t>float</t>
-  </si>
-  <si>
-    <t>float[]</t>
-  </si>
-  <si>
-    <t>zhs</t>
-  </si>
-  <si>
-    <t>summoner</t>
-  </si>
-  <si>
-    <t>召唤师</t>
+    <t>jbsy</t>
+  </si>
+  <si>
+    <t>kv</t>
+  </si>
+  <si>
+    <t>增加金币收益</t>
+  </si>
+  <si>
+    <t>gold_grow</t>
+  </si>
+  <si>
+    <t>zd</t>
+  </si>
+  <si>
+    <t>ability</t>
+  </si>
+  <si>
+    <t>释放范围爆炸</t>
+  </si>
+  <si>
+    <t>rattr</t>
+  </si>
+  <si>
+    <t>randomAttr</t>
+  </si>
+  <si>
+    <t>随机添加属性</t>
   </si>
   <si>
     <t>最小攻击</t>
@@ -448,7 +227,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="28">
+  <fonts count="26">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -483,11 +262,10 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
+      <sz val="10.5"/>
+      <color rgb="FF4EC9B0"/>
+      <name val="Consolas"/>
       <charset val="134"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <u/>
@@ -634,18 +412,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <name val="Tahoma"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -1107,7 +873,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1132,17 +898,14 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="3" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1464,68 +1227,53 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:AC4"/>
+  <dimension ref="A1:M9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="3" topLeftCell="E4" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="G19" sqref="G19"/>
+      <selection pane="bottomRight" activeCell="M9" sqref="M9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="15.5" customWidth="1"/>
-    <col min="2" max="2" width="10.375" customWidth="1"/>
-    <col min="3" max="3" width="17.125" customWidth="1"/>
-    <col min="4" max="4" width="23.75" customWidth="1"/>
-    <col min="5" max="5" width="9" customWidth="1"/>
-    <col min="6" max="6" width="14.75" customWidth="1"/>
-    <col min="7" max="7" width="11" customWidth="1"/>
-    <col min="8" max="8" width="12.75" customWidth="1"/>
-    <col min="9" max="9" width="11.625" customWidth="1"/>
-    <col min="10" max="10" width="9.375" customWidth="1"/>
-    <col min="11" max="11" width="14.875" customWidth="1"/>
-    <col min="12" max="12" width="8.375" customWidth="1"/>
-    <col min="13" max="14" width="13.75" customWidth="1"/>
-    <col min="15" max="15" width="19.375" customWidth="1"/>
-    <col min="16" max="16" width="11.5" customWidth="1"/>
-    <col min="17" max="17" width="17.125" customWidth="1"/>
-    <col min="18" max="19" width="18.25" customWidth="1"/>
-    <col min="20" max="20" width="8.875" customWidth="1"/>
-    <col min="21" max="21" width="12.625" customWidth="1"/>
-    <col min="22" max="22" width="10.875" customWidth="1"/>
-    <col min="23" max="23" width="12.625" customWidth="1"/>
-    <col min="24" max="24" width="10.375" customWidth="1"/>
-    <col min="25" max="25" width="17.125" customWidth="1"/>
-    <col min="26" max="26" width="11.5" customWidth="1"/>
-    <col min="27" max="27" width="17.125" customWidth="1"/>
-    <col min="28" max="28" width="27.125" customWidth="1"/>
-    <col min="29" max="29" width="11.5" customWidth="1"/>
-    <col min="30" max="201" width="9.5" customWidth="1"/>
+    <col min="2" max="2" width="9" customWidth="1"/>
+    <col min="3" max="3" width="14.75" customWidth="1"/>
+    <col min="4" max="4" width="12.125" customWidth="1"/>
+    <col min="5" max="6" width="18.25" customWidth="1"/>
+    <col min="7" max="7" width="14.875" customWidth="1"/>
+    <col min="8" max="8" width="46.25" customWidth="1"/>
+    <col min="9" max="9" width="13" customWidth="1"/>
+    <col min="10" max="10" width="25.875" customWidth="1"/>
+    <col min="11" max="11" width="24.5" customWidth="1"/>
+    <col min="12" max="12" width="22.375" customWidth="1"/>
+    <col min="13" max="13" width="28.875" customWidth="1"/>
+    <col min="14" max="171" width="9.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15" spans="1:29">
+    <row r="1" ht="15" spans="1:13">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" t="s">
         <v>6</v>
       </c>
       <c r="H1" t="s">
@@ -1546,331 +1294,250 @@
       <c r="M1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" t="s">
+    </row>
+    <row r="2" ht="15" spans="1:13">
+      <c r="A2" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="O1" t="s">
+      <c r="B2" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="P1" t="s">
+      <c r="C2" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="D2" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="8" t="s">
+      <c r="E2" t="s">
         <v>17</v>
       </c>
-      <c r="S1" t="s">
+      <c r="F2" t="s">
         <v>18</v>
       </c>
-      <c r="T1" t="s">
+      <c r="G2" t="s">
         <v>19</v>
       </c>
-      <c r="U1" t="s">
+      <c r="H2" t="s">
         <v>20</v>
       </c>
-      <c r="V1" t="s">
+      <c r="I2" t="s">
         <v>21</v>
       </c>
-      <c r="W1" t="s">
+      <c r="J2" t="s">
         <v>22</v>
       </c>
-      <c r="X1" t="s">
+      <c r="K2" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="L2" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="M2" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" t="s">
+    </row>
+    <row r="3" ht="15" spans="1:13">
+      <c r="A3" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="AB1" s="8" t="s">
+      <c r="B3" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="C3" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="E3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F3" t="s">
+        <v>27</v>
+      </c>
+      <c r="G3" t="s">
+        <v>26</v>
+      </c>
+      <c r="H3" t="s">
+        <v>27</v>
+      </c>
+      <c r="I3" t="s">
         <v>28</v>
       </c>
+      <c r="J3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K3" t="s">
+        <v>28</v>
+      </c>
+      <c r="L3" t="s">
+        <v>26</v>
+      </c>
+      <c r="M3" t="s">
+        <v>27</v>
+      </c>
     </row>
-    <row r="2" ht="15" spans="1:29">
-      <c r="A2" s="6" t="s">
+    <row r="4" s="2" customFormat="1" ht="15" spans="1:7">
+      <c r="A4" s="8">
+        <v>134244374</v>
+      </c>
+      <c r="B4" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="C4" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="D4" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="E2" s="4" t="s">
+      <c r="E4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F4" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="G4" s="2">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5">
+        <v>134254575</v>
+      </c>
+      <c r="B5" t="s">
         <v>33</v>
       </c>
-      <c r="G2" s="7" t="s">
+      <c r="C5" t="s">
         <v>34</v>
       </c>
-      <c r="H2" s="8" t="s">
+      <c r="D5" t="s">
         <v>35</v>
       </c>
-      <c r="I2" t="s">
+      <c r="E5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F5" t="s">
         <v>36</v>
       </c>
-      <c r="J2" t="s">
+      <c r="G5">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="6" ht="14.25" spans="1:9">
+      <c r="A6">
+        <v>134243163</v>
+      </c>
+      <c r="B6" t="s">
         <v>37</v>
       </c>
-      <c r="K2" t="s">
+      <c r="C6" t="s">
         <v>38</v>
       </c>
-      <c r="L2" t="s">
+      <c r="D6" t="s">
         <v>39</v>
       </c>
-      <c r="M2" t="s">
+      <c r="E6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F6" t="s">
+        <v>32</v>
+      </c>
+      <c r="G6">
+        <v>1000</v>
+      </c>
+      <c r="H6" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="N2" t="s">
+      <c r="I6">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7">
+        <v>134263503</v>
+      </c>
+      <c r="B7" t="s">
         <v>41</v>
       </c>
-      <c r="O2" t="s">
+      <c r="C7" t="s">
         <v>42</v>
       </c>
-      <c r="P2" t="s">
+      <c r="D7" t="s">
         <v>43</v>
       </c>
-      <c r="Q2" t="s">
-        <v>43</v>
-      </c>
-      <c r="R2" t="s">
+      <c r="E7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="G7" s="2">
+        <v>1000</v>
+      </c>
+      <c r="J7" t="s">
         <v>44</v>
       </c>
-      <c r="S2" t="s">
-        <v>44</v>
-      </c>
-      <c r="T2" t="s">
+    </row>
+    <row r="8" spans="1:12">
+      <c r="A8">
+        <v>134257112</v>
+      </c>
+      <c r="B8" t="s">
         <v>45</v>
       </c>
-      <c r="U2" t="s">
-        <v>45</v>
-      </c>
-      <c r="V2" t="s">
+      <c r="C8" t="s">
         <v>46</v>
       </c>
-      <c r="W2" t="s">
-        <v>46</v>
-      </c>
-      <c r="X2" t="s">
+      <c r="D8" t="s">
         <v>47</v>
       </c>
-      <c r="Y2" t="s">
+      <c r="E8" t="s">
+        <v>17</v>
+      </c>
+      <c r="F8" t="s">
+        <v>36</v>
+      </c>
+      <c r="G8">
+        <v>1000</v>
+      </c>
+      <c r="L8">
+        <v>134269127</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
+      <c r="A9">
+        <v>134266585</v>
+      </c>
+      <c r="B9" t="s">
         <v>48</v>
       </c>
-      <c r="Z2" t="s">
+      <c r="C9" t="s">
         <v>49</v>
       </c>
-      <c r="AA2" t="s">
+      <c r="D9" t="s">
         <v>50</v>
       </c>
-      <c r="AB2" t="s">
-        <v>51</v>
-      </c>
-      <c r="AC2" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="3" ht="15" spans="1:29">
-      <c r="A3" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="B3" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="C3" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="D3" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="H3" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="I3" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="J3" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="K3" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="L3" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="M3" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="N3" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="O3" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="P3" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="Q3" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="R3" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="S3" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="T3" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="U3" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="V3" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="W3" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="X3" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="Y3" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="Z3" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="AA3" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="AB3" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="AC3" s="6" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="4" s="2" customFormat="1" ht="15" spans="1:29">
-      <c r="A4" s="10">
-        <v>134218565</v>
-      </c>
-      <c r="B4" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="C4" s="2">
-        <v>6</v>
-      </c>
-      <c r="D4" s="2">
-        <v>0</v>
-      </c>
-      <c r="E4" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="F4" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="G4" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="H4" s="11">
-        <v>10003</v>
-      </c>
-      <c r="I4" s="11">
-        <v>20004</v>
-      </c>
-      <c r="J4" s="2">
-        <v>10</v>
-      </c>
-      <c r="K4" s="2">
-        <v>1</v>
-      </c>
-      <c r="L4" s="2">
-        <v>10</v>
-      </c>
-      <c r="M4" s="2">
-        <v>1</v>
-      </c>
-      <c r="N4" s="2">
-        <v>10</v>
-      </c>
-      <c r="O4" s="2">
-        <v>1</v>
-      </c>
-      <c r="P4" s="2">
-        <v>30</v>
-      </c>
-      <c r="Q4" s="2">
-        <v>0</v>
-      </c>
-      <c r="R4" s="2">
-        <v>0</v>
-      </c>
-      <c r="S4" s="2">
-        <v>0</v>
-      </c>
-      <c r="T4" s="2">
-        <v>1</v>
-      </c>
-      <c r="U4" s="2">
-        <v>0</v>
-      </c>
-      <c r="V4" s="2">
-        <v>400</v>
-      </c>
-      <c r="W4" s="2">
-        <v>0</v>
-      </c>
-      <c r="X4" s="2">
-        <v>300</v>
-      </c>
-      <c r="Y4" s="2">
-        <v>1</v>
-      </c>
-      <c r="Z4" s="2">
-        <f>IF(Y4=0,201347498,IF(Y4=1,201385536,""))</f>
-        <v>201385536</v>
-      </c>
-      <c r="AA4" s="2">
-        <v>2</v>
-      </c>
-      <c r="AB4" s="2">
-        <v>0</v>
-      </c>
-      <c r="AC4" s="2">
-        <v>0</v>
+      <c r="E9" t="s">
+        <v>17</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="G9">
+        <v>1000</v>
+      </c>
+      <c r="M9" t="s">
+        <v>49</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="E4">
+  <conditionalFormatting sqref="B4">
     <cfRule type="duplicateValues" dxfId="0" priority="2"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E$1:E$1048576">
+  <conditionalFormatting sqref="B$1:B$1048576">
     <cfRule type="duplicateValues" dxfId="0" priority="48"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G$1:G$1048576">
+  <conditionalFormatting sqref="D$1:E$1048576">
     <cfRule type="duplicateValues" dxfId="0" priority="28"/>
   </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1897,22 +1564,22 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="1" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" s="1" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" s="1" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" s="1" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
     </row>
   </sheetData>

--- a/war3/maps/EntryMap/script/y3-helper/plugin/tools/config/item.xlsx
+++ b/war3/maps/EntryMap/script/y3-helper/plugin/tools/config/item.xlsx
@@ -1234,7 +1234,7 @@
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="M9" sqref="M9"/>
+      <selection pane="bottomRight" activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1452,7 +1452,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:11">
       <c r="A7">
         <v>134263503</v>
       </c>
@@ -1476,6 +1476,9 @@
       </c>
       <c r="J7" t="s">
         <v>44</v>
+      </c>
+      <c r="K7">
+        <v>100</v>
       </c>
     </row>
     <row r="8" spans="1:12">

--- a/war3/maps/EntryMap/script/y3-helper/plugin/tools/config/item.xlsx
+++ b/war3/maps/EntryMap/script/y3-helper/plugin/tools/config/item.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="30285" windowHeight="15345"/>
+    <workbookView windowHeight="17655"/>
   </bookViews>
   <sheets>
     <sheet name="unit" sheetId="5" r:id="rId1"/>
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="59">
   <si>
     <t>id</t>
   </si>
@@ -91,6 +91,12 @@
     <t>random_table</t>
   </si>
   <si>
+    <t>effect_id</t>
+  </si>
+  <si>
+    <t>effcct_timeout</t>
+  </si>
+  <si>
     <t>道具物编id</t>
   </si>
   <si>
@@ -128,6 +134,12 @@
   </si>
   <si>
     <t>随机属性的对应表名</t>
+  </si>
+  <si>
+    <t>获得道具效果id</t>
+  </si>
+  <si>
+    <t>效果显示时间</t>
   </si>
   <si>
     <t>int</t>
@@ -1227,14 +1239,14 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:M9"/>
+  <dimension ref="A1:O9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="3" topLeftCell="E4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="K7" sqref="K7"/>
+      <selection pane="bottomRight" activeCell="M17" sqref="M17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1251,10 +1263,12 @@
     <col min="11" max="11" width="24.5" customWidth="1"/>
     <col min="12" max="12" width="22.375" customWidth="1"/>
     <col min="13" max="13" width="28.875" customWidth="1"/>
-    <col min="14" max="171" width="9.5" customWidth="1"/>
+    <col min="14" max="14" width="15.75" customWidth="1"/>
+    <col min="15" max="15" width="15.5" customWidth="1"/>
+    <col min="16" max="171" width="9.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15" spans="1:13">
+    <row r="1" ht="15" spans="1:15">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1294,211 +1308,253 @@
       <c r="M1" t="s">
         <v>12</v>
       </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
     </row>
-    <row r="2" ht="15" spans="1:13">
+    <row r="2" ht="15" spans="1:15">
       <c r="A2" s="6" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="F2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="G2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="I2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="J2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="K2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="L2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="M2" t="s">
-        <v>25</v>
+        <v>27</v>
+      </c>
+      <c r="N2" t="s">
+        <v>28</v>
+      </c>
+      <c r="O2" t="s">
+        <v>29</v>
       </c>
     </row>
-    <row r="3" ht="15" spans="1:13">
+    <row r="3" ht="15" spans="1:15">
       <c r="A3" s="6" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="E3" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="F3" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="G3" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="H3" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="I3" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="J3" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="K3" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="L3" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="M3" t="s">
-        <v>27</v>
+        <v>31</v>
+      </c>
+      <c r="N3" t="s">
+        <v>30</v>
+      </c>
+      <c r="O3" t="s">
+        <v>32</v>
       </c>
     </row>
-    <row r="4" s="2" customFormat="1" ht="15" spans="1:7">
+    <row r="4" s="2" customFormat="1" ht="15" spans="1:15">
       <c r="A4" s="8">
         <v>134244374</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="E4" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="G4" s="2">
         <v>1000</v>
       </c>
+      <c r="N4" s="2">
+        <v>134249508</v>
+      </c>
+      <c r="O4" s="2">
+        <v>1.8</v>
+      </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:15">
       <c r="A5">
         <v>134254575</v>
       </c>
       <c r="B5" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="C5" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="D5" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="E5" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="F5" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="G5">
         <v>1000</v>
       </c>
+      <c r="N5">
+        <v>134249508</v>
+      </c>
+      <c r="O5" s="2">
+        <v>1.8</v>
+      </c>
     </row>
-    <row r="6" ht="14.25" spans="1:9">
+    <row r="6" ht="14.25" spans="1:15">
       <c r="A6">
         <v>134243163</v>
       </c>
       <c r="B6" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="C6" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="D6" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="E6" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="F6" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="G6">
         <v>1000</v>
       </c>
       <c r="H6" s="10" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="I6">
         <v>100</v>
       </c>
+      <c r="N6">
+        <v>134249508</v>
+      </c>
+      <c r="O6" s="2">
+        <v>1.8</v>
+      </c>
     </row>
-    <row r="7" spans="1:11">
+    <row r="7" spans="1:15">
       <c r="A7">
         <v>134263503</v>
       </c>
       <c r="B7" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="C7" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="D7" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="E7" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="G7" s="2">
         <v>1000</v>
       </c>
       <c r="J7" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="K7">
         <v>100</v>
       </c>
+      <c r="N7">
+        <v>134249508</v>
+      </c>
+      <c r="O7" s="2">
+        <v>1.8</v>
+      </c>
     </row>
-    <row r="8" spans="1:12">
+    <row r="8" spans="1:15">
       <c r="A8">
         <v>134257112</v>
       </c>
       <c r="B8" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="C8" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="D8" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="E8" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="F8" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="G8">
         <v>1000</v>
@@ -1506,32 +1562,35 @@
       <c r="L8">
         <v>134269127</v>
       </c>
+      <c r="O8" s="2"/>
     </row>
-    <row r="9" spans="1:13">
+    <row r="9" spans="1:15">
       <c r="A9">
         <v>134266585</v>
       </c>
       <c r="B9" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="C9" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="D9" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="E9" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="G9">
         <v>1000</v>
       </c>
       <c r="M9" t="s">
-        <v>49</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="N9"/>
+      <c r="O9" s="2"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="B4">
@@ -1567,22 +1626,22 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" s="1" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" s="1" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" s="1" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
     </row>
   </sheetData>

--- a/war3/maps/EntryMap/script/y3-helper/plugin/tools/config/item.xlsx
+++ b/war3/maps/EntryMap/script/y3-helper/plugin/tools/config/item.xlsx
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="58">
   <si>
     <t>id</t>
   </si>
@@ -91,10 +91,7 @@
     <t>random_table</t>
   </si>
   <si>
-    <t>effect_id</t>
-  </si>
-  <si>
-    <t>effcct_timeout</t>
+    <t>effcct_buff</t>
   </si>
   <si>
     <t>道具物编id</t>
@@ -136,10 +133,7 @@
     <t>随机属性的对应表名</t>
   </si>
   <si>
-    <t>获得道具效果id</t>
-  </si>
-  <si>
-    <t>效果显示时间</t>
+    <t>效果buff名称</t>
   </si>
   <si>
     <t>int</t>
@@ -161,6 +155,9 @@
   </si>
   <si>
     <t>gold</t>
+  </si>
+  <si>
+    <t>升级</t>
   </si>
   <si>
     <t>ssg</t>
@@ -239,7 +236,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="26">
+  <fonts count="27">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -277,6 +274,12 @@
       <sz val="10.5"/>
       <color rgb="FF4EC9B0"/>
       <name val="Consolas"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10.5"/>
+      <color rgb="FF4EC9B0"/>
+      <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
@@ -755,137 +758,137 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -917,6 +920,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1239,14 +1245,14 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:O9"/>
+  <dimension ref="A1:N9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="M17" sqref="M17"/>
+      <selection pane="bottomRight" activeCell="N8" sqref="N8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1263,12 +1269,11 @@
     <col min="11" max="11" width="24.5" customWidth="1"/>
     <col min="12" max="12" width="22.375" customWidth="1"/>
     <col min="13" max="13" width="28.875" customWidth="1"/>
-    <col min="14" max="14" width="15.75" customWidth="1"/>
-    <col min="15" max="15" width="15.5" customWidth="1"/>
-    <col min="16" max="171" width="9.5" customWidth="1"/>
+    <col min="14" max="14" width="15.5" customWidth="1"/>
+    <col min="15" max="170" width="9.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15" spans="1:15">
+    <row r="1" ht="15" spans="1:14">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1311,250 +1316,229 @@
       <c r="N1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" t="s">
+    </row>
+    <row r="2" ht="15" spans="1:14">
+      <c r="A2" s="6" t="s">
         <v>14</v>
       </c>
+      <c r="B2" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H2" t="s">
+        <v>21</v>
+      </c>
+      <c r="I2" t="s">
+        <v>22</v>
+      </c>
+      <c r="J2" t="s">
+        <v>23</v>
+      </c>
+      <c r="K2" t="s">
+        <v>24</v>
+      </c>
+      <c r="L2" t="s">
+        <v>25</v>
+      </c>
+      <c r="M2" t="s">
+        <v>26</v>
+      </c>
+      <c r="N2" t="s">
+        <v>27</v>
+      </c>
     </row>
-    <row r="2" ht="15" spans="1:15">
-      <c r="A2" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="E2" t="s">
-        <v>19</v>
-      </c>
-      <c r="F2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G2" t="s">
-        <v>21</v>
-      </c>
-      <c r="H2" t="s">
-        <v>22</v>
-      </c>
-      <c r="I2" t="s">
-        <v>23</v>
-      </c>
-      <c r="J2" t="s">
-        <v>24</v>
-      </c>
-      <c r="K2" t="s">
-        <v>25</v>
-      </c>
-      <c r="L2" t="s">
-        <v>26</v>
-      </c>
-      <c r="M2" t="s">
-        <v>27</v>
-      </c>
-      <c r="N2" t="s">
+    <row r="3" ht="15" spans="1:14">
+      <c r="A3" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="O2" t="s">
+      <c r="B3" s="4" t="s">
         <v>29</v>
       </c>
+      <c r="C3" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="E3" t="s">
+        <v>29</v>
+      </c>
+      <c r="F3" t="s">
+        <v>29</v>
+      </c>
+      <c r="G3" t="s">
+        <v>28</v>
+      </c>
+      <c r="H3" t="s">
+        <v>29</v>
+      </c>
+      <c r="I3" t="s">
+        <v>30</v>
+      </c>
+      <c r="J3" t="s">
+        <v>29</v>
+      </c>
+      <c r="K3" t="s">
+        <v>30</v>
+      </c>
+      <c r="L3" t="s">
+        <v>28</v>
+      </c>
+      <c r="M3" t="s">
+        <v>29</v>
+      </c>
+      <c r="N3" t="s">
+        <v>29</v>
+      </c>
     </row>
-    <row r="3" ht="15" spans="1:15">
-      <c r="A3" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="E3" t="s">
-        <v>31</v>
-      </c>
-      <c r="F3" t="s">
-        <v>31</v>
-      </c>
-      <c r="G3" t="s">
-        <v>30</v>
-      </c>
-      <c r="H3" t="s">
-        <v>31</v>
-      </c>
-      <c r="I3" t="s">
-        <v>32</v>
-      </c>
-      <c r="J3" t="s">
-        <v>31</v>
-      </c>
-      <c r="K3" t="s">
-        <v>32</v>
-      </c>
-      <c r="L3" t="s">
-        <v>30</v>
-      </c>
-      <c r="M3" t="s">
-        <v>31</v>
-      </c>
-      <c r="N3" t="s">
-        <v>30</v>
-      </c>
-      <c r="O3" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="4" s="2" customFormat="1" ht="15" spans="1:15">
+    <row r="4" s="2" customFormat="1" ht="15" spans="1:14">
       <c r="A4" s="8">
         <v>134244374</v>
       </c>
       <c r="B4" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="D4" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="C4" s="9" t="s">
+      <c r="E4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F4" s="2" t="s">
         <v>34</v>
-      </c>
-      <c r="D4" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="E4" t="s">
-        <v>19</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>36</v>
       </c>
       <c r="G4" s="2">
         <v>1000</v>
       </c>
-      <c r="N4" s="2">
-        <v>134249508</v>
-      </c>
-      <c r="O4" s="2">
-        <v>1.8</v>
+      <c r="N4" s="11" t="s">
+        <v>35</v>
       </c>
     </row>
-    <row r="5" spans="1:15">
+    <row r="5" spans="1:14">
       <c r="A5">
         <v>134254575</v>
       </c>
       <c r="B5" t="s">
+        <v>36</v>
+      </c>
+      <c r="C5" t="s">
         <v>37</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>38</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F5" t="s">
         <v>39</v>
-      </c>
-      <c r="E5" t="s">
-        <v>19</v>
-      </c>
-      <c r="F5" t="s">
-        <v>40</v>
       </c>
       <c r="G5">
         <v>1000</v>
       </c>
-      <c r="N5">
-        <v>134249508</v>
-      </c>
-      <c r="O5" s="2">
-        <v>1.8</v>
+      <c r="N5" s="11" t="s">
+        <v>35</v>
       </c>
     </row>
-    <row r="6" ht="14.25" spans="1:15">
+    <row r="6" ht="14.25" spans="1:14">
       <c r="A6">
         <v>134243163</v>
       </c>
       <c r="B6" t="s">
+        <v>40</v>
+      </c>
+      <c r="C6" t="s">
         <v>41</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
         <v>42</v>
       </c>
-      <c r="D6" t="s">
-        <v>43</v>
-      </c>
       <c r="E6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F6" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G6">
         <v>1000</v>
       </c>
       <c r="H6" s="10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I6">
         <v>100</v>
       </c>
-      <c r="N6">
-        <v>134249508</v>
-      </c>
-      <c r="O6" s="2">
-        <v>1.8</v>
+      <c r="N6" s="11" t="s">
+        <v>35</v>
       </c>
     </row>
-    <row r="7" spans="1:15">
+    <row r="7" spans="1:14">
       <c r="A7">
         <v>134263503</v>
       </c>
       <c r="B7" t="s">
+        <v>44</v>
+      </c>
+      <c r="C7" t="s">
         <v>45</v>
       </c>
-      <c r="C7" t="s">
+      <c r="D7" t="s">
         <v>46</v>
       </c>
-      <c r="D7" t="s">
-        <v>47</v>
-      </c>
       <c r="E7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G7" s="2">
         <v>1000</v>
       </c>
       <c r="J7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K7">
         <v>100</v>
       </c>
-      <c r="N7">
-        <v>134249508</v>
-      </c>
-      <c r="O7" s="2">
-        <v>1.8</v>
+      <c r="N7" s="11" t="s">
+        <v>35</v>
       </c>
     </row>
-    <row r="8" spans="1:15">
+    <row r="8" spans="1:14">
       <c r="A8">
         <v>134257112</v>
       </c>
       <c r="B8" t="s">
+        <v>48</v>
+      </c>
+      <c r="C8" t="s">
         <v>49</v>
       </c>
-      <c r="C8" t="s">
+      <c r="D8" t="s">
         <v>50</v>
       </c>
-      <c r="D8" t="s">
-        <v>51</v>
-      </c>
       <c r="E8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G8">
         <v>1000</v>
@@ -1562,35 +1546,38 @@
       <c r="L8">
         <v>134269127</v>
       </c>
-      <c r="O8" s="2"/>
+      <c r="N8" s="11" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="9" spans="1:15">
+    <row r="9" spans="1:14">
       <c r="A9">
         <v>134266585</v>
       </c>
       <c r="B9" t="s">
+        <v>51</v>
+      </c>
+      <c r="C9" t="s">
         <v>52</v>
       </c>
-      <c r="C9" t="s">
+      <c r="D9" t="s">
         <v>53</v>
       </c>
-      <c r="D9" t="s">
-        <v>54</v>
-      </c>
       <c r="E9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G9">
         <v>1000</v>
       </c>
       <c r="M9" t="s">
-        <v>53</v>
-      </c>
-      <c r="N9"/>
-      <c r="O9" s="2"/>
+        <v>52</v>
+      </c>
+      <c r="N9" s="11" t="s">
+        <v>35</v>
+      </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="B4">
@@ -1626,22 +1613,22 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
   </sheetData>
